--- a/ejercicios sin transcribir/Prueba de escritorio ejercicio 5.xlsx
+++ b/ejercicios sin transcribir/Prueba de escritorio ejercicio 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programacion\guia 1 programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manch\OneDrive\Escritorio\guia 1\tup_prog_1_2025_guia1\ejercicios sin transcribir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748EF5F-33DB-4106-ABD2-3A4624CBF5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F531748-5DB2-418E-82AF-9343A2DE8C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,12 +429,12 @@
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>10000</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>10000000</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>10000000</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>10000000</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>10000000</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>10000000</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>10000000</v>
@@ -538,12 +538,12 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>10000000</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K16">
         <v>757</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>10000000</v>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K17">
         <v>757</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>10000000</v>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K18">
         <v>757</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>10000000</v>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K19">
         <v>757</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>10000000</v>
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K20">
         <v>757</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>10000000</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="J21">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K21">
         <v>757</v>
